--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Hmmr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H2">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I2">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J2">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.375678666666666</v>
+        <v>3.457962</v>
       </c>
       <c r="N2">
-        <v>4.127035999999999</v>
+        <v>10.373886</v>
       </c>
       <c r="O2">
-        <v>0.0361615958334915</v>
+        <v>0.07614454177940357</v>
       </c>
       <c r="P2">
-        <v>0.03616159583349149</v>
+        <v>0.07614454177940358</v>
       </c>
       <c r="Q2">
-        <v>66.38357674332354</v>
+        <v>0.4851705110640001</v>
       </c>
       <c r="R2">
-        <v>597.452190689912</v>
+        <v>4.366534599576</v>
       </c>
       <c r="S2">
-        <v>0.03377780932149278</v>
+        <v>0.0002037774301428604</v>
       </c>
       <c r="T2">
-        <v>0.03377780932149278</v>
+        <v>0.0002037774301428604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H3">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I3">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J3">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.73962066666666</v>
+        <v>25.73962066666667</v>
       </c>
       <c r="N3">
-        <v>77.21886199999999</v>
+        <v>77.218862</v>
       </c>
       <c r="O3">
-        <v>0.6766011438635754</v>
+        <v>0.566788073795779</v>
       </c>
       <c r="P3">
-        <v>0.6766011438635752</v>
+        <v>0.566788073795779</v>
       </c>
       <c r="Q3">
-        <v>1242.069187574111</v>
+        <v>3.611406057510222</v>
       </c>
       <c r="R3">
-        <v>11178.622688167</v>
+        <v>32.502654517592</v>
       </c>
       <c r="S3">
-        <v>0.631999332367991</v>
+        <v>0.001516833832270393</v>
       </c>
       <c r="T3">
-        <v>0.6319993323679909</v>
+        <v>0.001516833832270393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H4">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I4">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J4">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.416767333333333</v>
+        <v>0.3208433333333333</v>
       </c>
       <c r="N4">
-        <v>7.250302</v>
+        <v>0.96253</v>
       </c>
       <c r="O4">
-        <v>0.06352803576095656</v>
+        <v>0.007064990476946567</v>
       </c>
       <c r="P4">
-        <v>0.06352803576095654</v>
+        <v>0.007064990476946567</v>
       </c>
       <c r="Q4">
-        <v>116.6214637403871</v>
+        <v>0.04501603083111111</v>
       </c>
       <c r="R4">
-        <v>1049.593173663484</v>
+        <v>0.40514427748</v>
       </c>
       <c r="S4">
-        <v>0.05934024284722444</v>
+        <v>1.89072725336877E-05</v>
       </c>
       <c r="T4">
-        <v>0.05934024284722444</v>
+        <v>1.890727253368771E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H5">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I5">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J5">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.312226666666667</v>
+        <v>12.82934566666667</v>
       </c>
       <c r="N5">
-        <v>18.93668</v>
+        <v>38.48803700000001</v>
       </c>
       <c r="O5">
-        <v>0.165925513755674</v>
+        <v>0.282503002380567</v>
       </c>
       <c r="P5">
-        <v>0.165925513755674</v>
+        <v>0.282503002380567</v>
       </c>
       <c r="Q5">
-        <v>304.5974278013956</v>
+        <v>1.800025620210222</v>
       </c>
       <c r="R5">
-        <v>2741.37685021256</v>
+        <v>16.200230581892</v>
       </c>
       <c r="S5">
-        <v>0.1549876391245741</v>
+        <v>0.0007560323364940899</v>
       </c>
       <c r="T5">
-        <v>0.1549876391245741</v>
+        <v>0.0007560323364940899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H6">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I6">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J6">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.025619333333333</v>
+        <v>1.320849666666667</v>
       </c>
       <c r="N6">
-        <v>3.076858</v>
+        <v>3.962549</v>
       </c>
       <c r="O6">
-        <v>0.02695980733704407</v>
+        <v>0.02908519313624941</v>
       </c>
       <c r="P6">
-        <v>0.02695980733704406</v>
+        <v>0.02908519313624941</v>
       </c>
       <c r="Q6">
-        <v>49.49141203791512</v>
+        <v>0.1853222527648889</v>
       </c>
       <c r="R6">
-        <v>445.422708341236</v>
+        <v>1.667900274884</v>
       </c>
       <c r="S6">
-        <v>0.02518260631438874</v>
+        <v>7.783756752630222E-05</v>
       </c>
       <c r="T6">
-        <v>0.02518260631438873</v>
+        <v>7.783756752630223E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>48.25514733333333</v>
+        <v>0.1403053333333333</v>
       </c>
       <c r="H7">
-        <v>144.765442</v>
+        <v>0.420916</v>
       </c>
       <c r="I7">
-        <v>0.9340796096783166</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="J7">
-        <v>0.9340796096783167</v>
+        <v>0.002676192217864005</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.172619333333333</v>
+        <v>1.744509</v>
       </c>
       <c r="N7">
-        <v>3.517858</v>
+        <v>5.233527</v>
       </c>
       <c r="O7">
-        <v>0.03082390344925868</v>
+        <v>0.03841419843105434</v>
       </c>
       <c r="P7">
-        <v>0.03082390344925867</v>
+        <v>0.03841419843105434</v>
       </c>
       <c r="Q7">
-        <v>56.58491869591511</v>
+        <v>0.244763916748</v>
       </c>
       <c r="R7">
-        <v>509.264268263236</v>
+        <v>2.202875250732</v>
       </c>
       <c r="S7">
-        <v>0.02879197970264566</v>
+        <v>0.0001028037788966713</v>
       </c>
       <c r="T7">
-        <v>0.02879197970264566</v>
+        <v>0.0001028037788966713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H8">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I8">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J8">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.375678666666666</v>
+        <v>3.457962</v>
       </c>
       <c r="N8">
-        <v>4.127035999999999</v>
+        <v>10.373886</v>
       </c>
       <c r="O8">
-        <v>0.0361615958334915</v>
+        <v>0.07614454177940357</v>
       </c>
       <c r="P8">
-        <v>0.03616159583349149</v>
+        <v>0.07614454177940358</v>
       </c>
       <c r="Q8">
-        <v>4.684859025427555</v>
+        <v>166.864465783068</v>
       </c>
       <c r="R8">
-        <v>42.16373122884799</v>
+        <v>1501.780192047612</v>
       </c>
       <c r="S8">
-        <v>0.002383786511998717</v>
+        <v>0.07008507574968713</v>
       </c>
       <c r="T8">
-        <v>0.002383786511998717</v>
+        <v>0.07008507574968714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H9">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I9">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J9">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.73962066666666</v>
+        <v>25.73962066666667</v>
       </c>
       <c r="N9">
-        <v>77.21886199999999</v>
+        <v>77.218862</v>
       </c>
       <c r="O9">
-        <v>0.6766011438635754</v>
+        <v>0.566788073795779</v>
       </c>
       <c r="P9">
-        <v>0.6766011438635752</v>
+        <v>0.566788073795779</v>
       </c>
       <c r="Q9">
-        <v>87.65600362437954</v>
+        <v>1242.069187574112</v>
       </c>
       <c r="R9">
-        <v>788.9040326194158</v>
+        <v>11178.622688167</v>
       </c>
       <c r="S9">
-        <v>0.04460181149558431</v>
+        <v>0.5216839468425465</v>
       </c>
       <c r="T9">
-        <v>0.0446018114955843</v>
+        <v>0.5216839468425465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H10">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I10">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J10">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.416767333333333</v>
+        <v>0.3208433333333333</v>
       </c>
       <c r="N10">
-        <v>7.250302</v>
+        <v>0.96253</v>
       </c>
       <c r="O10">
-        <v>0.06352803576095656</v>
+        <v>0.007064990476946567</v>
       </c>
       <c r="P10">
-        <v>0.06352803576095654</v>
+        <v>0.007064990476946567</v>
       </c>
       <c r="Q10">
-        <v>8.230275374815111</v>
+        <v>15.48234232091778</v>
       </c>
       <c r="R10">
-        <v>74.072478373336</v>
+        <v>139.34108088826</v>
       </c>
       <c r="S10">
-        <v>0.004187792913732114</v>
+        <v>0.006502769353870512</v>
       </c>
       <c r="T10">
-        <v>0.004187792913732113</v>
+        <v>0.006502769353870513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H11">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I11">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J11">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.312226666666667</v>
+        <v>12.82934566666667</v>
       </c>
       <c r="N11">
-        <v>18.93668</v>
+        <v>38.48803700000001</v>
       </c>
       <c r="O11">
-        <v>0.165925513755674</v>
+        <v>0.282503002380567</v>
       </c>
       <c r="P11">
-        <v>0.165925513755674</v>
+        <v>0.282503002380567</v>
       </c>
       <c r="Q11">
-        <v>21.49622058291556</v>
+        <v>619.0819653352617</v>
       </c>
       <c r="R11">
-        <v>193.46598524624</v>
+        <v>5571.737688017355</v>
       </c>
       <c r="S11">
-        <v>0.01093787463109987</v>
+        <v>0.2600218460663402</v>
       </c>
       <c r="T11">
-        <v>0.01093787463109987</v>
+        <v>0.2600218460663402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H12">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I12">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J12">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.025619333333333</v>
+        <v>1.320849666666667</v>
       </c>
       <c r="N12">
-        <v>3.076858</v>
+        <v>3.962549</v>
       </c>
       <c r="O12">
-        <v>0.02695980733704407</v>
+        <v>0.02908519313624941</v>
       </c>
       <c r="P12">
-        <v>0.02695980733704406</v>
+        <v>0.02908519313624941</v>
       </c>
       <c r="Q12">
-        <v>3.492735699727111</v>
+        <v>63.73779527018422</v>
       </c>
       <c r="R12">
-        <v>31.434621297544</v>
+        <v>573.6401574316581</v>
       </c>
       <c r="S12">
-        <v>0.001777201022655327</v>
+        <v>0.02677063800651434</v>
       </c>
       <c r="T12">
-        <v>0.001777201022655327</v>
+        <v>0.02677063800651434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.405489333333333</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H13">
-        <v>10.216468</v>
+        <v>144.765442</v>
       </c>
       <c r="I13">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="J13">
-        <v>0.06592039032168334</v>
+        <v>0.9204215313650299</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.172619333333333</v>
+        <v>1.744509</v>
       </c>
       <c r="N13">
-        <v>3.517858</v>
+        <v>5.233527</v>
       </c>
       <c r="O13">
-        <v>0.03082390344925868</v>
+        <v>0.03841419843105434</v>
       </c>
       <c r="P13">
-        <v>0.03082390344925867</v>
+        <v>0.03841419843105434</v>
       </c>
       <c r="Q13">
-        <v>3.99334263172711</v>
+        <v>84.18153881932599</v>
       </c>
       <c r="R13">
-        <v>35.940083685544</v>
+        <v>757.633849373934</v>
       </c>
       <c r="S13">
-        <v>0.002031923746613014</v>
+        <v>0.03535725534607117</v>
       </c>
       <c r="T13">
-        <v>0.002031923746613013</v>
+        <v>0.03535725534607117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.031773</v>
+      </c>
+      <c r="H14">
+        <v>12.095319</v>
+      </c>
+      <c r="I14">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J14">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.457962</v>
+      </c>
+      <c r="N14">
+        <v>10.373886</v>
+      </c>
+      <c r="O14">
+        <v>0.07614454177940357</v>
+      </c>
+      <c r="P14">
+        <v>0.07614454177940358</v>
+      </c>
+      <c r="Q14">
+        <v>13.941717826626</v>
+      </c>
+      <c r="R14">
+        <v>125.475460439634</v>
+      </c>
+      <c r="S14">
+        <v>0.005855688599573579</v>
+      </c>
+      <c r="T14">
+        <v>0.005855688599573579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.031773</v>
+      </c>
+      <c r="H15">
+        <v>12.095319</v>
+      </c>
+      <c r="I15">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J15">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>25.73962066666667</v>
+      </c>
+      <c r="N15">
+        <v>77.218862</v>
+      </c>
+      <c r="O15">
+        <v>0.566788073795779</v>
+      </c>
+      <c r="P15">
+        <v>0.566788073795779</v>
+      </c>
+      <c r="Q15">
+        <v>103.7763076341087</v>
+      </c>
+      <c r="R15">
+        <v>933.9867687069781</v>
+      </c>
+      <c r="S15">
+        <v>0.04358729312096214</v>
+      </c>
+      <c r="T15">
+        <v>0.04358729312096213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.031773</v>
+      </c>
+      <c r="H16">
+        <v>12.095319</v>
+      </c>
+      <c r="I16">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J16">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.3208433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.96253</v>
+      </c>
+      <c r="O16">
+        <v>0.007064990476946567</v>
+      </c>
+      <c r="P16">
+        <v>0.007064990476946567</v>
+      </c>
+      <c r="Q16">
+        <v>1.293567488563333</v>
+      </c>
+      <c r="R16">
+        <v>11.64210739707</v>
+      </c>
+      <c r="S16">
+        <v>0.0005433138505423672</v>
+      </c>
+      <c r="T16">
+        <v>0.0005433138505423672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.031773</v>
+      </c>
+      <c r="H17">
+        <v>12.095319</v>
+      </c>
+      <c r="I17">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J17">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.82934566666667</v>
+      </c>
+      <c r="N17">
+        <v>38.48803700000001</v>
+      </c>
+      <c r="O17">
+        <v>0.282503002380567</v>
+      </c>
+      <c r="P17">
+        <v>0.282503002380567</v>
+      </c>
+      <c r="Q17">
+        <v>51.72500946653368</v>
+      </c>
+      <c r="R17">
+        <v>465.5250851988031</v>
+      </c>
+      <c r="S17">
+        <v>0.02172512397773275</v>
+      </c>
+      <c r="T17">
+        <v>0.02172512397773275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.031773</v>
+      </c>
+      <c r="H18">
+        <v>12.095319</v>
+      </c>
+      <c r="I18">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J18">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.320849666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.962549</v>
+      </c>
+      <c r="O18">
+        <v>0.02908519313624941</v>
+      </c>
+      <c r="P18">
+        <v>0.02908519313624941</v>
+      </c>
+      <c r="Q18">
+        <v>5.325366023125667</v>
+      </c>
+      <c r="R18">
+        <v>47.928294208131</v>
+      </c>
+      <c r="S18">
+        <v>0.00223671756220877</v>
+      </c>
+      <c r="T18">
+        <v>0.002236717562208769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.031773</v>
+      </c>
+      <c r="H19">
+        <v>12.095319</v>
+      </c>
+      <c r="I19">
+        <v>0.07690227641710612</v>
+      </c>
+      <c r="J19">
+        <v>0.07690227641710611</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.744509</v>
+      </c>
+      <c r="N19">
+        <v>5.233527</v>
+      </c>
+      <c r="O19">
+        <v>0.03841419843105434</v>
+      </c>
+      <c r="P19">
+        <v>0.03841419843105434</v>
+      </c>
+      <c r="Q19">
+        <v>7.033464284457</v>
+      </c>
+      <c r="R19">
+        <v>63.30117856011299</v>
+      </c>
+      <c r="S19">
+        <v>0.002954139306086505</v>
+      </c>
+      <c r="T19">
+        <v>0.002954139306086505</v>
       </c>
     </row>
   </sheetData>
